--- a/结果/CHB-MIT数据集/KNN分类/样本熵/KNN_chb03_sampen.xlsx
+++ b/结果/CHB-MIT数据集/KNN分类/样本熵/KNN_chb03_sampen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\SVM分类\样本熵\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\KNN分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B596F363-9320-4665-B2DF-ED394344F259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D36D4E6-8CFC-4AC4-BE84-DA3D90757F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1344" windowWidth="15828" windowHeight="11016" activeTab="5" xr2:uid="{F3FFDAB1-F0B7-4BB9-84BE-9BD63347EF2D}"/>
+    <workbookView xWindow="4188" yWindow="720" windowWidth="15828" windowHeight="11016" activeTab="5" xr2:uid="{F3FFDAB1-F0B7-4BB9-84BE-9BD63347EF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -93,8 +102,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD14EF01-403A-4DFC-9B7B-B8B6CEBFB1E2}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,6 +440,185 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B2">
+        <v>58.823500000000003</v>
+      </c>
+      <c r="C2">
+        <v>68.888900000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B4">
+        <v>60.869599999999998</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B6">
+        <v>71.739099999999993</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>70.833299999999994</v>
+      </c>
+      <c r="B8">
+        <v>80.434799999999996</v>
+      </c>
+      <c r="C8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B10">
+        <v>62.745100000000001</v>
+      </c>
+      <c r="C10">
+        <v>51.1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B13">
+        <v>78.260900000000007</v>
+      </c>
+      <c r="C13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B15">
+        <v>72.7273</v>
+      </c>
+      <c r="C15">
+        <v>51.923099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B17">
+        <v>58.695700000000002</v>
+      </c>
+      <c r="C17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>53.125</v>
+      </c>
+      <c r="B19">
+        <v>54.545499999999997</v>
+      </c>
+      <c r="C19">
+        <v>51.923099999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>63.8889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>62.5</v>
+      </c>
+      <c r="B24">
+        <v>61.538499999999999</v>
+      </c>
+      <c r="C24">
+        <v>63.636400000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B26">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>67.391300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B28">
+        <v>55.555599999999998</v>
+      </c>
+      <c r="C28">
+        <v>70.588200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>54.166699999999999</v>
+      </c>
+      <c r="B30">
+        <v>63.636400000000002</v>
+      </c>
+      <c r="C30">
+        <v>46.153799999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B32">
+        <v>69.387799999999999</v>
+      </c>
+      <c r="C32">
+        <v>59.5745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>61.736113333333336</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>64.063986666666651</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>59.938620000000007</v>
       </c>
     </row>
   </sheetData>
@@ -439,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B810C507-C82A-45BD-9B4D-1B00DFD3EF7E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,6 +647,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B2">
+        <v>65.217399999999998</v>
+      </c>
+      <c r="C2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B4">
+        <v>46.666699999999999</v>
+      </c>
+      <c r="C4">
+        <v>62.745100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59.375</v>
+      </c>
+      <c r="B6">
+        <v>65.517200000000003</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B8">
+        <v>54.347799999999999</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59.375</v>
+      </c>
+      <c r="B10">
+        <v>53.333300000000001</v>
+      </c>
+      <c r="C10">
+        <v>64.7059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B13">
+        <v>61.904800000000002</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B15">
+        <v>47.826099999999997</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B17">
+        <v>60.784300000000002</v>
+      </c>
+      <c r="C17">
+        <v>66.666700000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B19">
+        <v>61.1111</v>
+      </c>
+      <c r="C19">
+        <v>61.904800000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B21">
+        <v>59.5745</v>
+      </c>
+      <c r="C21">
+        <v>44.898000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>59.375</v>
+      </c>
+      <c r="B24">
+        <v>65.909099999999995</v>
+      </c>
+      <c r="C24">
+        <v>53.846200000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B26">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>63.043500000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>62.5</v>
+      </c>
+      <c r="B28">
+        <v>58.823500000000003</v>
+      </c>
+      <c r="C28">
+        <v>66.666700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>51.041699999999999</v>
+      </c>
+      <c r="B30">
+        <v>54.716999999999999</v>
+      </c>
+      <c r="C30">
+        <v>46.511600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B32">
+        <v>61.904800000000002</v>
+      </c>
+      <c r="C32">
+        <v>53.703699999999998</v>
       </c>
     </row>
   </sheetData>
@@ -466,10 +822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B1D5B3-E0CB-4F55-A1B0-E92DE0517301}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +839,185 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>65.625</v>
+      </c>
+      <c r="B2">
+        <v>65.217399999999998</v>
+      </c>
+      <c r="C2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>58.695700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B6">
+        <v>52.830199999999998</v>
+      </c>
+      <c r="C6">
+        <v>62.790700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B8">
+        <v>69.767399999999995</v>
+      </c>
+      <c r="C8">
+        <v>60.377400000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>62.5</v>
+      </c>
+      <c r="B10">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="C10">
+        <v>58.333300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B13">
+        <v>54.347799999999999</v>
+      </c>
+      <c r="C13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>62.5</v>
+      </c>
+      <c r="B15">
+        <v>57.407400000000003</v>
+      </c>
+      <c r="C15">
+        <v>69.047600000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>61.458300000000001</v>
+      </c>
+      <c r="B17">
+        <v>63.043500000000002</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B19">
+        <v>60.869599999999998</v>
+      </c>
+      <c r="C19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B21">
+        <v>72.916700000000006</v>
+      </c>
+      <c r="C21">
+        <v>66.666700000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>72.916700000000006</v>
+      </c>
+      <c r="B24">
+        <v>76.595699999999994</v>
+      </c>
+      <c r="C24">
+        <v>69.387799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>60.416699999999999</v>
+      </c>
+      <c r="B26">
+        <v>60.4651</v>
+      </c>
+      <c r="C26">
+        <v>60.377400000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B28">
+        <v>65.384600000000006</v>
+      </c>
+      <c r="C28">
+        <v>61.363599999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>62.5</v>
+      </c>
+      <c r="B30">
+        <v>52.7273</v>
+      </c>
+      <c r="C30">
+        <v>75.609800000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B32">
+        <v>62.790700000000001</v>
+      </c>
+      <c r="C32">
+        <v>52.830199999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>63.472233333333328</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>63.268673333333332</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>64.098679999999987</v>
       </c>
     </row>
   </sheetData>
@@ -493,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C72B51-2F65-4A3E-B040-1720690970AF}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,6 +1045,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>48.958300000000001</v>
+      </c>
+      <c r="B2">
+        <v>58.5366</v>
+      </c>
+      <c r="C2">
+        <v>41.818199999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>53.125</v>
+      </c>
+      <c r="B4">
+        <v>53.191499999999998</v>
+      </c>
+      <c r="C4">
+        <v>53.061199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B6">
+        <v>44.230800000000002</v>
+      </c>
+      <c r="C6">
+        <v>68.181799999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B8">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>60.869599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>56.25</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>63.043500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>54.166699999999999</v>
+      </c>
+      <c r="B13">
+        <v>59.459499999999998</v>
+      </c>
+      <c r="C13">
+        <v>50.847499999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>48.958300000000001</v>
+      </c>
+      <c r="B15">
+        <v>47.058799999999998</v>
+      </c>
+      <c r="C15">
+        <v>51.1111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>56.25</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>63.636400000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45.833300000000001</v>
+      </c>
+      <c r="B19">
+        <v>51.923099999999998</v>
+      </c>
+      <c r="C19">
+        <v>38.636400000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>43.75</v>
+      </c>
+      <c r="C21">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>48.958300000000001</v>
+      </c>
+      <c r="B24">
+        <v>55.814</v>
+      </c>
+      <c r="C24">
+        <v>43.3962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>42.222200000000001</v>
+      </c>
+      <c r="C26">
+        <v>56.862699999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>51.041699999999999</v>
+      </c>
+      <c r="B28">
+        <v>47.826099999999997</v>
+      </c>
+      <c r="C28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>54.166699999999999</v>
+      </c>
+      <c r="B30">
+        <v>52.941200000000002</v>
+      </c>
+      <c r="C30">
+        <v>55.555599999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B32">
+        <v>49.090899999999998</v>
+      </c>
+      <c r="C32">
+        <v>68.292699999999996</v>
       </c>
     </row>
   </sheetData>
@@ -520,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44C781B-F187-40A4-BD80-7077415D3088}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,6 +1237,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>55.208300000000001</v>
+      </c>
+      <c r="B2">
+        <v>53.333300000000001</v>
+      </c>
+      <c r="C2">
+        <v>56.862699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>56.25</v>
+      </c>
+      <c r="B4">
+        <v>61.224499999999999</v>
+      </c>
+      <c r="C4">
+        <v>51.063800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>53.125</v>
+      </c>
+      <c r="B6">
+        <v>47.058799999999998</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>48.958300000000001</v>
+      </c>
+      <c r="B8">
+        <v>55.319099999999999</v>
+      </c>
+      <c r="C8">
+        <v>42.857100000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>60.416699999999999</v>
+      </c>
+      <c r="C10">
+        <v>39.583300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B13">
+        <v>56.862699999999997</v>
+      </c>
+      <c r="C13">
+        <v>46.666699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>59.090899999999998</v>
+      </c>
+      <c r="C15">
+        <v>42.307699999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B17">
+        <v>46.296300000000002</v>
+      </c>
+      <c r="C17">
+        <v>59.523800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>57.291699999999999</v>
+      </c>
+      <c r="B19">
+        <v>68.75</v>
+      </c>
+      <c r="C19">
+        <v>45.833300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>53.125</v>
+      </c>
+      <c r="B21">
+        <v>51.162799999999997</v>
+      </c>
+      <c r="C21">
+        <v>54.716999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>63.541699999999999</v>
+      </c>
+      <c r="B24">
+        <v>61.224499999999999</v>
+      </c>
+      <c r="C24">
+        <v>65.957400000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>52.083300000000001</v>
+      </c>
+      <c r="B26">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>59.375</v>
+      </c>
+      <c r="B28">
+        <v>61.1111</v>
+      </c>
+      <c r="C28">
+        <v>57.142899999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>53.125</v>
+      </c>
+      <c r="B30">
+        <v>60.9756</v>
+      </c>
+      <c r="C30">
+        <v>47.2727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>48.958300000000001</v>
+      </c>
+      <c r="B32">
+        <v>58.695700000000002</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -547,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F05EFAA-3903-4D02-8A9E-646074610CBB}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -566,6 +1431,185 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70.833299999999994</v>
+      </c>
+      <c r="B2">
+        <v>68.085099999999997</v>
+      </c>
+      <c r="C2">
+        <v>73.469399999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>68.75</v>
+      </c>
+      <c r="B4">
+        <v>62.790700000000001</v>
+      </c>
+      <c r="C4">
+        <v>73.584900000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>70.833299999999994</v>
+      </c>
+      <c r="B6">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="C6">
+        <v>76.1905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>57.142899999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>70.833299999999994</v>
+      </c>
+      <c r="B10">
+        <v>76.785700000000006</v>
+      </c>
+      <c r="C10">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>71.875</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>73.214299999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>69.791700000000006</v>
+      </c>
+      <c r="B15">
+        <v>69.565200000000004</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>73.958299999999994</v>
+      </c>
+      <c r="B17">
+        <v>72.222200000000001</v>
+      </c>
+      <c r="C17">
+        <v>76.1905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>67.391300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>65.625</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>60.869599999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>66.666700000000006</v>
+      </c>
+      <c r="B24">
+        <v>80.851100000000002</v>
+      </c>
+      <c r="C24">
+        <v>53.061199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>67.708299999999994</v>
+      </c>
+      <c r="B26">
+        <v>67.441900000000004</v>
+      </c>
+      <c r="C26">
+        <v>67.924499999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>71.875</v>
+      </c>
+      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>64.583299999999994</v>
+      </c>
+      <c r="B30">
+        <v>56.6038</v>
+      </c>
+      <c r="C30">
+        <v>74.418599999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>70.833299999999994</v>
+      </c>
+      <c r="B32">
+        <v>71.428600000000003</v>
+      </c>
+      <c r="C32">
+        <v>70.212800000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>69.583320000000001</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>70.962733333333333</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>68.328033333333323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
